--- a/parsonal/t_mogi/rental2/webアプリ　課題　（茂木） (version 1).xlsx
+++ b/parsonal/t_mogi/rental2/webアプリ　課題　（茂木） (version 1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.mogi\Desktop\勉強会メモ\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StudySession_2022\parsonal\t_mogi\rental2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4092904B-83F8-4430-9BA0-62FA5ABBF21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2F61C8-13AD-4A26-BEC9-70C989CE705A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12855" yWindow="4035" windowWidth="23505" windowHeight="13755" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="11010" windowWidth="23505" windowHeight="13755" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -10528,7 +10528,7 @@
         <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10581,7 +10581,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10634,7 +10634,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10687,7 +10687,7 @@
         <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10740,7 +10740,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10798,7 +10798,7 @@
         <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10851,7 +10851,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10904,7 +10904,7 @@
         <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10957,7 +10957,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11010,7 +11010,7 @@
         <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11063,7 +11063,7 @@
         <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11116,7 +11116,7 @@
         <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16093,6 +16093,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="U38:V39"/>
     <mergeCell ref="AF8:AG9"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="U22:V23"/>
@@ -16101,7 +16102,6 @@
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="K9:N9"/>
-    <mergeCell ref="U38:V39"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19166,8 +19166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD05BC67-DDA9-4B83-9A8C-D1412B6F76B1}">
   <dimension ref="B2:BG147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG58" sqref="AG58"/>
+    <sheetView tabSelected="1" topLeftCell="Z34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM96" sqref="AM96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/parsonal/t_mogi/rental2/webアプリ　課題　（茂木） (version 1).xlsx
+++ b/parsonal/t_mogi/rental2/webアプリ　課題　（茂木） (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StudySession_2022\parsonal\t_mogi\rental2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2F61C8-13AD-4A26-BEC9-70C989CE705A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFAF7CB-D6D7-4743-9CBB-7E6D4A48446B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="11010" windowWidth="23505" windowHeight="13755" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="1725" windowWidth="23505" windowHeight="13755" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,12 +25,24 @@
     <sheet name="crud テーブル定義" sheetId="10" r:id="rId10"/>
     <sheet name="crud 客目線" sheetId="7" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="227">
   <si>
     <t>初期画面</t>
   </si>
@@ -1795,6 +1807,10 @@
   </si>
   <si>
     <t>＾</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/Inventory control/delete/result</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -16093,15 +16109,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
     <mergeCell ref="U38:V39"/>
     <mergeCell ref="AF8:AG9"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="U22:V23"/>
     <mergeCell ref="T7:U8"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19166,8 +19182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD05BC67-DDA9-4B83-9A8C-D1412B6F76B1}">
   <dimension ref="B2:BG147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM96" sqref="AM96"/>
+    <sheetView tabSelected="1" topLeftCell="Z73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN95" sqref="AN95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21043,7 +21059,9 @@
         <v>76</v>
       </c>
       <c r="AL100" s="6"/>
-      <c r="AN100" s="111"/>
+      <c r="AN100" s="143" t="s">
+        <v>226</v>
+      </c>
       <c r="AP100" s="4"/>
       <c r="AR100" s="100"/>
       <c r="AS100" s="5"/>
